--- a/2025/02-klobuckaKola/02-VKCT2025-KlobuckaKola.xlsx
+++ b/2025/02-klobuckaKola/02-VKCT2025-KlobuckaKola.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="326">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -666,6 +666,36 @@
     <t xml:space="preserve">Mladší žačky (2013-2014)</t>
   </si>
   <si>
+    <t xml:space="preserve">00:19:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristýna Dolečková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:20:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tereza Ernestová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:20:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella Prochanová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:22:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice Zvonková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:30:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofie Němečková</t>
+  </si>
+  <si>
     <t xml:space="preserve">Starší žačky (2011-2012)</t>
   </si>
   <si>
@@ -861,6 +891,9 @@
     <t xml:space="preserve">Cyklogat</t>
   </si>
   <si>
+    <t xml:space="preserve">Kateřina Ďuláková</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ženy - Z2 (1985 a starší)</t>
   </si>
   <si>
@@ -918,7 +951,7 @@
     <t xml:space="preserve">01:12:07</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivan Rehak</t>
+    <t xml:space="preserve">Ivan Rehák</t>
   </si>
   <si>
     <t xml:space="preserve">Bike Centrum Dubnica</t>
@@ -993,7 +1026,7 @@
     <numFmt numFmtId="165" formatCode="mm:ss"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1042,6 +1075,16 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1097,7 +1140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1122,7 +1165,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,11 +1177,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1154,7 +1197,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,8 +1330,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1665,7 +1712,6 @@
       <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="0"/>
       <c r="F20" s="1" t="n">
         <v>-1</v>
       </c>
@@ -1838,7 +1884,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1858,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1897,16 +1943,16 @@
         <v>56</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2013</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1919,16 +1965,16 @@
         <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2013</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1941,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>173</v>
@@ -1949,8 +1995,8 @@
       <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>-1</v>
+      <c r="F6" s="15" t="n">
+        <v>2015</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1963,10 +2009,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>33</v>
@@ -1985,16 +2031,16 @@
         <v>53</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
+        <v>2013</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2007,13 +2053,13 @@
         <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>-1</v>
@@ -2029,13 +2075,13 @@
         <v>54</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>-1</v>
@@ -2051,13 +2097,13 @@
         <v>201</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>-1</v>
@@ -2073,16 +2119,16 @@
         <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>-1</v>
+        <v>2014</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2095,10 +2141,10 @@
         <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="1" t="n">
@@ -2411,7 +2457,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2431,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -2470,16 +2516,16 @@
         <v>60</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2011</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2492,16 +2538,16 @@
         <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2012</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2514,16 +2560,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>2012</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2536,10 +2582,10 @@
         <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>143</v>
@@ -2558,13 +2604,13 @@
         <v>62</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-1</v>
@@ -2931,7 +2977,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2951,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -2995,10 +3041,10 @@
         <v>208</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="1" t="n">
@@ -3015,10 +3061,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>59</v>
@@ -3429,7 +3475,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3449,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -3493,16 +3539,16 @@
         <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2010</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3515,16 +3561,16 @@
         <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2009</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3537,10 +3583,10 @@
         <v>204</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="1" t="n">
@@ -3557,16 +3603,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>-1</v>
+        <v>277</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>2016</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3946,8 +3992,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3967,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -4011,16 +4057,16 @@
         <v>126</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2007</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4033,25 +4079,31 @@
         <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2007</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>211</v>
+      </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="1" t="n">
         <v>-1</v>
@@ -4447,7 +4499,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4467,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -4511,16 +4563,16 @@
         <v>128</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>1972</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4937,7 +4989,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4957,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -5001,16 +5053,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2006</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -5023,13 +5075,13 @@
         <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>-1</v>
@@ -5045,13 +5097,13 @@
         <v>65</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>-1</v>
@@ -5447,7 +5499,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5467,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -5511,16 +5563,16 @@
         <v>206</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>1977</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -5533,16 +5585,16 @@
         <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>1976</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5555,10 +5607,10 @@
         <v>202</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="1" t="n">
@@ -5575,16 +5627,16 @@
         <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-1</v>
+        <v>1977</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5597,16 +5649,16 @@
         <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
+        <v>1982</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5619,16 +5671,16 @@
         <v>73</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-1</v>
+        <v>1977</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5641,16 +5693,16 @@
         <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-1</v>
+        <v>1981</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5995,7 +6047,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6015,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -6059,10 +6111,10 @@
         <v>209</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="1" t="n">
@@ -6079,16 +6131,16 @@
         <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>1971</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6101,16 +6153,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>1972</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6123,14 +6175,14 @@
         <v>205</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="1" t="n">
-        <v>-1</v>
+        <v>1966</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6511,7 +6563,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6520,7 +6572,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.29"/>
@@ -6556,7 +6608,7 @@
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="0"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6578,7 +6630,7 @@
       <c r="F4" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="0"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6598,9 +6650,9 @@
         <v>33</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6622,7 +6674,7 @@
       <c r="F6" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="0"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6644,7 +6696,7 @@
       <c r="F7" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="0"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6664,9 +6716,9 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6686,7 +6738,7 @@
       <c r="F9" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="0"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6706,9 +6758,9 @@
         <v>46</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6720,7 +6772,7 @@
       <c r="F11" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="0"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6732,7 +6784,7 @@
       <c r="F12" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="0"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6744,7 +6796,7 @@
       <c r="F13" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="0"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6756,7 +6808,7 @@
       <c r="F14" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="0"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7051,7 +7103,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7116,7 +7168,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2019</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7160,7 +7212,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>2020</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7182,7 +7234,7 @@
         <v>59</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-1</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7354,7 +7406,7 @@
         <v>81</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-1</v>
+        <v>2020</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -7705,7 +7757,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2018</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7727,7 +7779,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>2018</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7793,7 +7845,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-1</v>
+        <v>2018</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8150,7 +8202,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8218,7 +8270,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8240,7 +8292,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8262,7 +8314,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8284,7 +8336,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -8306,7 +8358,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -8328,7 +8380,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8372,7 +8424,7 @@
         <v>90</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -8705,7 +8757,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8773,7 +8825,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2017</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8795,7 +8847,7 @@
         <v>126</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2018</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8861,7 +8913,7 @@
         <v>134</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
+        <v>2017</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -8905,7 +8957,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-1</v>
+        <v>2017</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8993,7 +9045,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>-1</v>
+        <v>2017</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9368,7 +9420,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9436,7 +9488,7 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9458,7 +9510,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9480,7 +9532,7 @@
         <v>59</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -9502,7 +9554,7 @@
         <v>178</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9524,7 +9576,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -9590,7 +9642,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -9678,7 +9730,7 @@
         <v>199</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-1</v>
+        <v>2016</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -9961,8 +10013,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10018,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>-1</v>
@@ -10040,19 +10092,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2013</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -10062,16 +10114,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>-1</v>
@@ -10084,16 +10136,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>-1</v>
@@ -10106,39 +10158,29 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-1</v>
+        <v>2013</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>114</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1" t="n">
         <v>-1</v>
       </c>
@@ -10146,21 +10188,11 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>78</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="1" t="n">
         <v>-1</v>
       </c>
@@ -10168,21 +10200,11 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>113</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1" t="n">
         <v>-1</v>
       </c>
@@ -10517,7 +10539,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10526,7 +10548,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.29"/>
@@ -10537,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -10576,16 +10598,16 @@
         <v>124</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>2012</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -10598,16 +10620,16 @@
         <v>123</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2012</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
